--- a/biology/Botanique/Taralea_oppositifolia/Taralea_oppositifolia.xlsx
+++ b/biology/Botanique/Taralea_oppositifolia/Taralea_oppositifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taralea opositifolia est une espèce d'arbre, appartenant à la famille des Fabaceae et originaire d'Amérique du Sud. C'est l'espèce type du genre Taralea Aubl..
-Il est connu en Guyane sous les noms de Bois-crapaud, Bois violet, Gagnac, Gagnac rivière, Gaïac, Gaïac de l'eau (Créole)[3], Neko udu (Aluku)[4].
-Au Venezuela, on le désigne comme Arepillo, Zapatero (Espagnol)[5].
+Il est connu en Guyane sous les noms de Bois-crapaud, Bois violet, Gagnac, Gagnac rivière, Gaïac, Gaïac de l'eau (Créole), Neko udu (Aluku).
+Au Venezuela, on le désigne comme Arepillo, Zapatero (Espagnol).
 Au Brésil, on l'appelle Cumarurana, Cundurú (Portugais),
-et ailleurs Almendrillo, Zapatero (Espagnol), Opposite Taralea (Anglais, nom commercial)[6].
+et ailleurs Almendrillo, Zapatero (Espagnol), Opposite Taralea (Anglais, nom commercial).
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taralea opositifolia appartient à la tribu des Dipterygeae (qui a fait l'objet d'une révision taxonomique[7]) et est à ce titre proche de Dipteryx odorata qui produit les fèves tonka.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taralea opositifolia appartient à la tribu des Dipterygeae (qui a fait l'objet d'une révision taxonomique) et est à ce titre proche de Dipteryx odorata qui produit les fèves tonka.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taralea opositifolia est un arbre haut de 8–30 m pour environ 30-70 cm de diamètre.
 La base du tronc est digitée, ou à petits contreforts.
@@ -554,7 +570,7 @@
 Le phloème est de couleur crème à rose clair.
 L'aubier est blanc à jaunâtre.
 Les jeunes rameaux sont canaliculés. 
-Son bois a une densité de 0,86 - 0,95 g/cm3[6].
+Son bois a une densité de 0,86 - 0,95 g/cm3.
 Les feuilles sont généralement opposées, composées, paripennées à (4)6-8 folioles souvent opposées. 
 Les folioles sont coriaces à finement coriaces, glabres, ponctuées-pellucides, à nervation peu visible sur la face supérieure, de forme ovale ou oblongue-elliptique, à apex aigu ou acuminé, à base arrondie ou large cunéiforme, et mesurant 8-12(15) cm de long et 3-6 cm de large. 
 La nervure médiane est déprimée sur le dessus, et carénée sur le dessus. 
@@ -574,7 +590,7 @@
 On compte 10 étamines jaunes, monadelphes, avec des anthères versatiles, alternativement plus longues et plus courtes.
 L'ovaire est blanc-soyeux, densément pubescent, un peu stipité, porte un petit stigmate terminal au bout du style, et contient l ovule.
 Le fruit est une gousse déhiscente comprimée, plate, de forme ovale à elliptique, cunéiforme à chaque extrémité, mesurant de profil 5-7 cm de long pour x 2,3-3,5(4) cm de large, avec des valves glabres, épaisses, ligneuses, verdâtres à brun foncé à maturité, et contenant une graine unique.
-La graine est ovale, comprimée, aplatie, inodore, mesurant de 2–2,5(3) cm de long, pour 1,5–2 cm de large[6],[5],[8],[9],[3].
+La graine est ovale, comprimée, aplatie, inodore, mesurant de 2–2,5(3) cm de long, pour 1,5–2 cm de large.
 </t>
         </is>
       </c>
@@ -603,9 +619,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Taralea opositifolia est présente en Amazonie[6],[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Taralea opositifolia est présente en Amazonie, :
 dans le nord (y compris l'Amazonie du Venezuela, la Colombie, le Guyana, le Suriname, la Guyane, et le bassin supérieur du Rio Negro au nord du Brésil),
 dans l'ouest (des pentes orientales des Andes jusqu'à la partie occidentale de l'Amazonie brésilienne, y compris l'Amazonie équatorienne, péruvienne, bolivienne et sud-colombienne, et l'État d'Acre au nord-ouest du Brésil),
 dans le centre (de la frontière ouest du Brésil au bassin du Rio Tapajós),
@@ -637,7 +655,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Brésil, Taralea opositifolia est un arbre rare de mi-canopée, de fin de succession tardive dans les várzea basse. 
 Il affectionne aussi bien les várzea basses (forêts inondées à plus de 3 m de hauteur, avec une période d'inondation moyenne de plus de 50 jours par an),
@@ -645,12 +665,12 @@
 jusqu'aux forêts amazoniennes de terre ferme (non inondées).
 C'est une espèce de succession tardive, apparaissant parmi des arbres âgés de plus de 150 ans.
 Avec sa hauteur moyenne de 15-20 m, elle occupe l'étage moyen dans la stratification forestière, parmi les arbres de 15-25 m.
-Son feuillage est persistant : il ne présente pas de perte de feuilles remarquable[6].
-Au Venezuela, Taralea opositifolia pousse dans les forêts ripicole au bord des rivières d'eaux noires, autour de 100–400 m[5].
-On l'a vu fleurir en novembre en Guyane[3].
-On a étudié les spécificités physiologiques entourant la formation des fleurs de Taralea oppositifolia[10].
-Taralea oppositifolia est la plante hôte d'au moins deux insectes xylophages de la famille des Cerambycidae : Eclipta taraleaphila Tavakilian &amp; Peñaherrera-Leiva, 2003 et Odontocera javieri Tavakilian &amp; Peñaherrera-Leiva, 2003[11].
-L'anatomie des folioles de Taralea oppositifolia et ses implications pour la systématique évolutionniste ont été étudiées[12].
+Son feuillage est persistant : il ne présente pas de perte de feuilles remarquable.
+Au Venezuela, Taralea opositifolia pousse dans les forêts ripicole au bord des rivières d'eaux noires, autour de 100–400 m.
+On l'a vu fleurir en novembre en Guyane.
+On a étudié les spécificités physiologiques entourant la formation des fleurs de Taralea oppositifolia.
+Taralea oppositifolia est la plante hôte d'au moins deux insectes xylophages de la famille des Cerambycidae : Eclipta taraleaphila Tavakilian &amp; Peñaherrera-Leiva, 2003 et Odontocera javieri Tavakilian &amp; Peñaherrera-Leiva, 2003.
+L'anatomie des folioles de Taralea oppositifolia et ses implications pour la systématique évolutionniste ont été étudiées.
 </t>
         </is>
       </c>
@@ -679,13 +699,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Taralea opositifolia est très dur, utilisé pour la construction de maisons, des poteaux, des colonnes, des encadrements de portes et fenêtres, de la marqueterie, des panneaux et du parquets[6].
-Ses extrait auraient des propriétés anti-cancéreuses[13].
-Taralea oppositifolia présente un grand potentiel économique, notamment d'un point de vue médicinal. Une étude des structures sécrétrices a mis en évidence la présence de polysaccharides, lipides, d'alcaloïdes et de composés phénoliques[14]
-Les extraits de Taralea oppositifolia présentent des effets inhibiteurs de la tyrosinase qui joue un rôle dans la production de la mélanine et la pigmentation de la peau[15]
-Taralea oppositifolia fait partie des plantes médicinales amazoniennes décrites par C.F.P. von Martius au XIXe siècle[16].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Taralea opositifolia est très dur, utilisé pour la construction de maisons, des poteaux, des colonnes, des encadrements de portes et fenêtres, de la marqueterie, des panneaux et du parquets.
+Ses extrait auraient des propriétés anti-cancéreuses.
+Taralea oppositifolia présente un grand potentiel économique, notamment d'un point de vue médicinal. Une étude des structures sécrétrices a mis en évidence la présence de polysaccharides, lipides, d'alcaloïdes et de composés phénoliques
+Les extraits de Taralea oppositifolia présentent des effets inhibiteurs de la tyrosinase qui joue un rôle dans la production de la mélanine et la pigmentation de la peau
+Taralea oppositifolia fait partie des plantes médicinales amazoniennes décrites par C.F.P. von Martius au XIXe siècle.
 </t>
         </is>
       </c>
@@ -714,9 +736,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[17] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TARALEA oppoſitifolia. (Tabula 298.)
 Arbor trunco ſexaginta-pedali, ad ſummitatem ramoſiſſimo ; Ramis latè &amp; undique ſparſis ; ramulis oppoſitis. Folia pinnata, oppoſita ; foliolis amplis, ovatis, acutis, rigidis, integerrimis, brevi petiolatis, quinis, ſuboppoiitis, coſtæ planæ adnexis. Flores paniculati, axillares &amp; terminates ; ramulis &amp; floribus plerumque oppoſitis. Fiores expand, latè odorem aromaticum ſpargunt.
 Florebat Octobri ; fructum ferebat Martio.
